--- a/dataset/Reg_Metropol_BH (1).xlsx
+++ b/dataset/Reg_Metropol_BH (1).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF975925-1DF6-423D-AE81-1FEC7589CFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A8D5D6-15B8-4763-BD4A-215EA98D5509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Belo Horizonte</t>
   </si>
   <si>
-    <t>Betim,Caeté,Contagem,Ibirité,Lagoa Santa,Nova Lima,Pedro Leopoldo,Raposos,Ribeirão Das Neves,Rio Acima,Sabará,Santa Luzia,Vespasiano</t>
+    <t>Contagem, Ribeirão das Neves, Vespasiano, Santa Luzia, Sabará, Nova Lima,Ibirité</t>
   </si>
   <si>
     <t>Betim</t>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="87">
+    <row r="2" spans="1:2" ht="43.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
